--- a/input/PROC_Centrosss.xlsx
+++ b/input/PROC_Centrosss.xlsx
@@ -17,6 +17,9 @@
     <sheet name="Variables adicionales" sheetId="2" r:id="rId3"/>
     <sheet name="Datos Maestro" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="96">
   <si>
     <t>FAMILIA</t>
   </si>
@@ -310,6 +313,12 @@
   </si>
   <si>
     <t>OPOSICIÓN</t>
+  </si>
+  <si>
+    <t>CON_CES</t>
+  </si>
+  <si>
+    <t>CESIÓN DE CONTRATOS</t>
   </si>
 </sst>
 </file>
@@ -682,7 +691,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -726,7 +735,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -770,7 +779,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -814,7 +823,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -858,7 +867,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +911,7 @@
         <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,7 +955,7 @@
         <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,7 +999,7 @@
         <xdr:cNvPr id="9" name="Imagen 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1043,7 @@
         <xdr:cNvPr id="10" name="Imagen 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,7 +1087,7 @@
         <xdr:cNvPr id="11" name="Imagen 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,7 +1131,7 @@
         <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1175,7 @@
         <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,7 +1219,7 @@
         <xdr:cNvPr id="14" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1263,7 @@
         <xdr:cNvPr id="15" name="Imagen 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,8 +1292,27 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Revisión de procedimientos"/>
+      <sheetName val="Bloques comunes"/>
+      <sheetName val="Variables adicionales"/>
+      <sheetName val="Datos Maestro"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:AJ895" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:AJ896" totalsRowShown="0">
   <tableColumns count="36">
     <tableColumn id="1" name="FAMILIA"/>
     <tableColumn id="2" name="CÓDIGO DE PROCEDIMIENTO" dataDxfId="29"/>
@@ -1610,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ895"/>
+  <dimension ref="A1:AJ896"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1641,7 +1669,7 @@
     <col min="34" max="34" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1756,30 +1784,30 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D2" s="15" t="str">
-        <f t="shared" ref="D2:D9" si="0">TRIM(CONCATENATE("FORM_",B2,"_IGE"))</f>
-        <v>FORM_CON_DGD_IGE</v>
+        <f t="shared" ref="D2" si="0">TRIM(CONCATENATE("FORM_",B2,"_IGE"))</f>
+        <v>FORM_CON_CES_IGE</v>
       </c>
       <c r="E2" s="15" t="str">
-        <f t="shared" ref="E2:E9" si="1">TRIM(CONCATENATE(B2,"_IGE"))</f>
-        <v>CON_DGD_IGE</v>
+        <f t="shared" ref="E2" si="1">TRIM(CONCATENATE(B2,"_IGE"))</f>
+        <v>CON_CES_IGE</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="15" t="e">
-        <f ca="1">_xlfn.CONCAT( RIGHT(Tabla1[[#This Row],[CÓDIGO DE PROCEDIMIENTO]],3),"_",Tabla1[[#This Row],[VERSION]])</f>
+        <f ca="1">_xlfn.CONCAT( RIGHT([1]!Tabla1[[#This Row],[CÓDIGO DE PROCEDIMIENTO]],3),"_",[1]!Tabla1[[#This Row],[VERSION]])</f>
         <v>#NAME?</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -1846,8 +1874,8 @@
         <v>15</v>
       </c>
       <c r="AE2" s="1"/>
-      <c r="AF2" s="6">
-        <f t="shared" ref="AF2:AF9" si="2" xml:space="preserve"> LEN(AE2)-LEN(SUBSTITUTE(AE2,";",""))</f>
+      <c r="AF2" s="1">
+        <f t="shared" ref="AF2" si="2" xml:space="preserve"> LEN(AE2)-LEN(SUBSTITUTE(AE2,";",""))</f>
         <v>0</v>
       </c>
       <c r="AG2" s="1" t="s">
@@ -1866,18 +1894,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>FORM_CON_EFD_IGE</v>
+        <f t="shared" ref="D3:D10" si="3">TRIM(CONCATENATE("FORM_",B3,"_IGE"))</f>
+        <v>FORM_CON_DGD_IGE</v>
       </c>
       <c r="E3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>CON_EFD_IGE</v>
+        <f t="shared" ref="E3:E10" si="4">TRIM(CONCATENATE(B3,"_IGE"))</f>
+        <v>CON_DGD_IGE</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>82</v>
@@ -1956,8 +1984,8 @@
         <v>15</v>
       </c>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="1">
-        <f t="shared" si="2"/>
+      <c r="AF3" s="6">
+        <f t="shared" ref="AF3:AF10" si="5" xml:space="preserve"> LEN(AE3)-LEN(SUBSTITUTE(AE3,";",""))</f>
         <v>0</v>
       </c>
       <c r="AG3" s="1" t="s">
@@ -1976,18 +2004,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>FORM_CON_RCI_IGE</v>
+        <f t="shared" si="3"/>
+        <v>FORM_CON_EFD_IGE</v>
       </c>
       <c r="E4" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>CON_RCI_IGE</v>
+        <f t="shared" si="4"/>
+        <v>CON_EFD_IGE</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>82</v>
@@ -2067,10 +2095,10 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AG4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AH4" s="1" t="s">
@@ -2081,23 +2109,23 @@
       </c>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>FORM_CON_RCM_IGE</v>
+        <f t="shared" si="3"/>
+        <v>FORM_CON_RCI_IGE</v>
       </c>
       <c r="E5" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>CON_RCM_IGE</v>
+        <f t="shared" si="4"/>
+        <v>CON_RCI_IGE</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>82</v>
@@ -2142,7 +2170,7 @@
       <c r="S5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -2177,10 +2205,10 @@
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AG5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="AH5" s="1" t="s">
@@ -2191,23 +2219,23 @@
       </c>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>FORM_CON_REP_IGE</v>
+        <f t="shared" si="3"/>
+        <v>FORM_CON_RCM_IGE</v>
       </c>
       <c r="E6" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>CON_REP_IGE</v>
+        <f t="shared" si="4"/>
+        <v>CON_RCM_IGE</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>82</v>
@@ -2252,7 +2280,7 @@
       <c r="S6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -2287,7 +2315,7 @@
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG6" s="1" t="s">
@@ -2306,16 +2334,18 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="D7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>FORM_CON_RET_IGE</v>
+        <f t="shared" si="3"/>
+        <v>FORM_CON_REP_IGE</v>
       </c>
       <c r="E7" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>CON_RET_IGE</v>
+        <f t="shared" si="4"/>
+        <v>CON_REP_IGE</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>82</v>
@@ -2327,8 +2357,8 @@
       <c r="H7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>3</v>
+      <c r="I7" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>6</v>
@@ -2345,24 +2375,68 @@
       <c r="N7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>15</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
+      <c r="AG7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -2370,18 +2444,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C8" s="15"/>
       <c r="D8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>FORM_CON_ROC_IGE</v>
+        <f t="shared" si="3"/>
+        <v>FORM_CON_RET_IGE</v>
       </c>
       <c r="E8" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>CON_ROC_IGE</v>
+        <f t="shared" si="4"/>
+        <v>CON_RET_IGE</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>82</v>
@@ -2393,8 +2465,8 @@
       <c r="H8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>5</v>
+      <c r="I8" s="15" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>6</v>
@@ -2411,87 +2483,43 @@
       <c r="N8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>15</v>
-      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>FORM_CON_SUB_IGE</v>
+        <f t="shared" si="3"/>
+        <v>FORM_CON_ROC_IGE</v>
       </c>
       <c r="E9" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>CON_SUB_IGE</v>
+        <f t="shared" si="4"/>
+        <v>CON_ROC_IGE</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>82</v>
@@ -2503,7 +2531,7 @@
       <c r="H9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -2571,7 +2599,7 @@
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG9" s="1" t="s">
@@ -2583,40 +2611,119 @@
       <c r="AI9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="AJ9" s="1"/>
+    </row>
+    <row r="10" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>FORM_CON_SUB_IGE</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>CON_SUB_IGE</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="15" t="e">
+        <f ca="1">_xlfn.CONCAT( RIGHT(Tabla1[[#This Row],[CÓDIGO DE PROCEDIMIENTO]],3),"_",Tabla1[[#This Row],[VERSION]])</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
@@ -3078,7 +3185,7 @@
       <c r="AB25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="7"/>
+      <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -3109,7 +3216,7 @@
       <c r="AB26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="AG26" s="7"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -3171,7 +3278,7 @@
       <c r="AB28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="7"/>
+      <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -3202,7 +3309,7 @@
       <c r="AB29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
+      <c r="AG29" s="7"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -3357,7 +3464,7 @@
       <c r="AB34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="7"/>
+      <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -3388,7 +3495,7 @@
       <c r="AB35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
+      <c r="AG35" s="7"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -3581,7 +3688,7 @@
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="17"/>
@@ -3612,7 +3719,7 @@
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="17"/>
@@ -3643,7 +3750,7 @@
     </row>
     <row r="44" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="17"/>
@@ -3705,7 +3812,7 @@
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="17"/>
@@ -3860,7 +3967,7 @@
     </row>
     <row r="51" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="17"/>
@@ -3891,7 +3998,7 @@
     </row>
     <row r="52" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="17"/>
@@ -5782,7 +5889,7 @@
     </row>
     <row r="113" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B113" s="15"/>
-      <c r="C113" s="16"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="17"/>
@@ -5844,7 +5951,7 @@
     </row>
     <row r="115" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="17"/>
@@ -5999,7 +6106,7 @@
     </row>
     <row r="120" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B120" s="15"/>
-      <c r="C120" s="16"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="17"/>
@@ -6030,7 +6137,7 @@
     </row>
     <row r="121" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
+      <c r="C121" s="16"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="17"/>
@@ -6340,7 +6447,7 @@
     </row>
     <row r="131" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B131" s="15"/>
-      <c r="C131" s="16"/>
+      <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="17"/>
@@ -6371,7 +6478,7 @@
     </row>
     <row r="132" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="17"/>
@@ -6464,7 +6571,7 @@
     </row>
     <row r="135" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B135" s="15"/>
-      <c r="C135" s="16"/>
+      <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
       <c r="F135" s="17"/>
@@ -6495,7 +6602,7 @@
     </row>
     <row r="136" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
+      <c r="C136" s="16"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="17"/>
@@ -11771,12 +11878,12 @@
       <c r="F306" s="17"/>
       <c r="G306" s="15"/>
       <c r="H306" s="15"/>
-      <c r="I306" s="20"/>
-      <c r="J306" s="20"/>
-      <c r="K306" s="20"/>
-      <c r="L306" s="20"/>
-      <c r="M306" s="20"/>
-      <c r="N306" s="20"/>
+      <c r="I306" s="15"/>
+      <c r="J306" s="15"/>
+      <c r="K306" s="15"/>
+      <c r="L306" s="15"/>
+      <c r="M306" s="15"/>
+      <c r="N306" s="15"/>
       <c r="S306" s="1"/>
       <c r="T306" s="1"/>
       <c r="U306" s="1"/>
@@ -11802,12 +11909,12 @@
       <c r="F307" s="17"/>
       <c r="G307" s="15"/>
       <c r="H307" s="15"/>
-      <c r="I307" s="15"/>
-      <c r="J307" s="15"/>
-      <c r="K307" s="15"/>
-      <c r="L307" s="15"/>
-      <c r="M307" s="15"/>
-      <c r="N307" s="15"/>
+      <c r="I307" s="20"/>
+      <c r="J307" s="20"/>
+      <c r="K307" s="20"/>
+      <c r="L307" s="20"/>
+      <c r="M307" s="20"/>
+      <c r="N307" s="20"/>
       <c r="S307" s="1"/>
       <c r="T307" s="1"/>
       <c r="U307" s="1"/>
@@ -16104,16 +16211,19 @@
       <c r="AJ445" s="1"/>
     </row>
     <row r="446" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="E446" s="12"/>
-      <c r="F446" s="14"/>
-      <c r="G446" s="12"/>
-      <c r="H446" s="12"/>
-      <c r="I446" s="12"/>
-      <c r="J446" s="12"/>
-      <c r="K446" s="12"/>
-      <c r="L446" s="12"/>
-      <c r="M446" s="12"/>
-      <c r="N446" s="12"/>
+      <c r="B446" s="15"/>
+      <c r="C446" s="15"/>
+      <c r="D446" s="15"/>
+      <c r="E446" s="15"/>
+      <c r="F446" s="17"/>
+      <c r="G446" s="15"/>
+      <c r="H446" s="15"/>
+      <c r="I446" s="15"/>
+      <c r="J446" s="15"/>
+      <c r="K446" s="15"/>
+      <c r="L446" s="15"/>
+      <c r="M446" s="15"/>
+      <c r="N446" s="15"/>
       <c r="S446" s="1"/>
       <c r="T446" s="1"/>
       <c r="U446" s="1"/>
@@ -28703,6 +28813,34 @@
       <c r="AI895" s="1"/>
       <c r="AJ895" s="1"/>
     </row>
+    <row r="896" spans="5:36" x14ac:dyDescent="0.3">
+      <c r="E896" s="12"/>
+      <c r="F896" s="14"/>
+      <c r="G896" s="12"/>
+      <c r="H896" s="12"/>
+      <c r="I896" s="12"/>
+      <c r="J896" s="12"/>
+      <c r="K896" s="12"/>
+      <c r="L896" s="12"/>
+      <c r="M896" s="12"/>
+      <c r="N896" s="12"/>
+      <c r="S896" s="1"/>
+      <c r="T896" s="1"/>
+      <c r="U896" s="1"/>
+      <c r="V896" s="1"/>
+      <c r="W896" s="1"/>
+      <c r="X896" s="1"/>
+      <c r="Y896" s="1"/>
+      <c r="Z896" s="1"/>
+      <c r="AA896" s="1"/>
+      <c r="AB896" s="1"/>
+      <c r="AE896" s="1"/>
+      <c r="AF896" s="1"/>
+      <c r="AG896" s="1"/>
+      <c r="AH896" s="1"/>
+      <c r="AI896" s="1"/>
+      <c r="AJ896" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28712,24 +28850,42 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Datos Maestro'!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AG20:AG895 AD2:AD895 AG2:AG18 AH2:AH895</xm:sqref>
+          <xm:sqref>AG21:AG896 AH3:AH896 AG3:AG19 AD3:AD896</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Datos Maestro'!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:AC895</xm:sqref>
+          <xm:sqref>O3:AC896</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Datos Maestro'!$B$8:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AI2:AI895</xm:sqref>
+          <xm:sqref>AI3:AI896</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]Datos Maestro'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>AI2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]Datos Maestro'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:AC2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]Datos Maestro'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD2 AG2:AH2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -29028,12 +29184,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006E14564BD24A2E4D868D06E4AD22B82C" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="641636ff6df86ef94f0048c8b62768a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7376f322-e02c-40d1-a696-1506b905dc54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f7f1566436fb44a1a296f8adeb44e61" ns2:_="">
     <xsd:import namespace="7376f322-e02c-40d1-a696-1506b905dc54"/>
@@ -29197,6 +29347,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29207,15 +29363,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AEDDEC-4FE3-4C43-A367-607C4054A3EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7409C9B-AB74-4A12-B1CF-8812B8E435C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29233,6 +29380,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78AEDDEC-4FE3-4C43-A367-607C4054A3EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E00AB27-C081-4D8A-8B9B-119B57ADCC20}">
   <ds:schemaRefs>
